--- a/aind1/AIND-Planning/results.xlsx
+++ b/aind1/AIND-Planning/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>Air Cargo Problem Part 1</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>a* ignore preconditions</t>
+  </si>
+  <si>
+    <t>Air Cargo Problem Part 2</t>
+  </si>
+  <si>
+    <t>uniform_cost_search</t>
+  </si>
+  <si>
+    <t>a* h1</t>
+  </si>
+  <si>
+    <t>a* level sum</t>
   </si>
 </sst>
 </file>
@@ -64,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,7 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167FF87F-B289-41F4-BBC4-B09AE3489487}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,16 +508,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>2.0905E-2</v>
       </c>
       <c r="E4" s="2">
@@ -519,14 +531,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>9.9679999999999994E-3</v>
       </c>
       <c r="E5" s="2">
@@ -540,15 +552,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="3">
-        <v>2.5250600000000002E-2</v>
+      <c r="D6" s="6">
+        <v>2.5009E-2</v>
       </c>
       <c r="E6" s="2">
         <v>55</v>
@@ -561,25 +573,25 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>9.1242999999999999</v>
       </c>
       <c r="E8" s="2">
@@ -593,14 +605,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
         <v>619</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6">
         <v>2.3094990000000002</v>
       </c>
       <c r="E9" s="2">
@@ -614,15 +626,15 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
-        <v>8.0764615000000006</v>
+      <c r="D10" s="6">
+        <v>8.0994499999999992</v>
       </c>
       <c r="E10" s="2">
         <v>4852</v>
@@ -638,22 +650,22 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>12</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6">
         <v>67.585769999999997</v>
       </c>
       <c r="E12" s="2">
@@ -667,14 +679,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2">
         <v>392</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6">
         <v>1.19532675</v>
       </c>
       <c r="E13" s="2">
@@ -688,15 +700,15 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
-        <v>35.981397000000001</v>
+      <c r="D14" s="6">
+        <v>35.3568</v>
       </c>
       <c r="E14" s="2">
         <v>18235</v>
@@ -708,11 +720,255 @@
         <v>159716</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.5092E-2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" s="2">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2.5250600000000002E-2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>55</v>
+      </c>
+      <c r="F20" s="2">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.59597999999999995</v>
+      </c>
+      <c r="E21" s="2">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8.1246329750000008</v>
+      </c>
+      <c r="E23" s="2">
+        <v>4852</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4854</v>
+      </c>
+      <c r="G23" s="2">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.0764615000000006</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4852</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4854</v>
+      </c>
+      <c r="G24" s="2">
+        <v>44030</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>51.5057106</v>
+      </c>
+      <c r="E25" s="2">
+        <v>85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" s="2">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6">
+        <v>35.429870999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>18235</v>
+      </c>
+      <c r="F27" s="2">
+        <v>18237</v>
+      </c>
+      <c r="G27" s="2">
+        <v>159716</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35.981397000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>18235</v>
+      </c>
+      <c r="F28" s="2">
+        <v>18237</v>
+      </c>
+      <c r="G28" s="2">
+        <v>159716</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6">
+        <v>263.38249999999999</v>
+      </c>
+      <c r="E29" s="2">
+        <v>325</v>
+      </c>
+      <c r="F29" s="2">
+        <v>327</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aind1/AIND-Planning/results.xlsx
+++ b/aind1/AIND-Planning/results.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>Air Cargo Problem Part 1</t>
   </si>
@@ -69,6 +69,69 @@
   </si>
   <si>
     <t>a* level sum</t>
+  </si>
+  <si>
+    <t>Optimal Plans</t>
+  </si>
+  <si>
+    <t>Problem 1</t>
+  </si>
+  <si>
+    <t>Problem 2</t>
+  </si>
+  <si>
+    <t>Problem 3</t>
+  </si>
+  <si>
+    <t>Load(C1, P1, SFO)</t>
+  </si>
+  <si>
+    <t>Load(C2, P2, JFK)</t>
+  </si>
+  <si>
+    <t>Fly(P1, SFO, JFK)</t>
+  </si>
+  <si>
+    <t>Fly(P2, JFK, SFO)</t>
+  </si>
+  <si>
+    <t>Unload(C1, P1, JFK)</t>
+  </si>
+  <si>
+    <t>Unload(C2, P2, SFO)</t>
+  </si>
+  <si>
+    <t>Load(C3, P3, ATL)</t>
+  </si>
+  <si>
+    <t>Fly(P3, ATL, SFO)</t>
+  </si>
+  <si>
+    <t>Unload(C3, P3, SFO)</t>
+  </si>
+  <si>
+    <t>Fly(P1, SFO, ATL)</t>
+  </si>
+  <si>
+    <t>Load(C3, P1, ATL)</t>
+  </si>
+  <si>
+    <t>Fly(P2, JFK, ORD)</t>
+  </si>
+  <si>
+    <t>Load(C4, P2, ORD)</t>
+  </si>
+  <si>
+    <t>Fly(P2, ORD, SFO)</t>
+  </si>
+  <si>
+    <t>Fly(P1, ATL, JFK)</t>
+  </si>
+  <si>
+    <t>Unload(C4, P2, SFO)</t>
+  </si>
+  <si>
+    <t>Unload(C3, P1, JFK)</t>
   </si>
 </sst>
 </file>
@@ -140,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -152,6 +215,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167FF87F-B289-41F4-BBC4-B09AE3489487}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,14 +543,31 @@
     <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,8 +589,17 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -529,8 +621,17 @@
       <c r="G4" s="2">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -550,8 +651,17 @@
       <c r="G5" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
@@ -571,8 +681,17 @@
       <c r="G6" s="2">
         <v>224</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -580,8 +699,17 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2</v>
       </c>
@@ -603,8 +731,17 @@
       <c r="G8" s="2">
         <v>30509</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
         <v>9</v>
@@ -624,8 +761,15 @@
       <c r="G9" s="2">
         <v>5602</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
         <v>12</v>
@@ -645,8 +789,15 @@
       <c r="G10" s="2">
         <v>44030</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -654,8 +805,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -677,8 +835,13 @@
       <c r="G12" s="2">
         <v>129631</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="4" t="s">
         <v>9</v>
@@ -698,8 +861,13 @@
       <c r="G13" s="2">
         <v>3364</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -719,8 +887,13 @@
       <c r="G14" s="2">
         <v>159716</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -780,16 +953,16 @@
         <v>6</v>
       </c>
       <c r="D20" s="6">
-        <v>2.5250600000000002E-2</v>
+        <v>1.9616911890000002E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2">
-        <v>224</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>0.59597999999999995</v>
+        <v>0.52185539999999997</v>
       </c>
       <c r="E21" s="2">
         <v>11</v>
@@ -854,16 +1027,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="6">
-        <v>8.0764615000000006</v>
+        <v>2.4846064700000001</v>
       </c>
       <c r="E24" s="2">
-        <v>4852</v>
+        <v>1450</v>
       </c>
       <c r="F24" s="2">
-        <v>4854</v>
+        <v>1452</v>
       </c>
       <c r="G24" s="2">
-        <v>44030</v>
+        <v>13303</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -875,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="6">
-        <v>51.5057106</v>
+        <v>43.870800000000003</v>
       </c>
       <c r="E25" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" s="2">
         <v>88</v>
@@ -928,16 +1101,16 @@
         <v>12</v>
       </c>
       <c r="D28" s="6">
-        <v>35.981397000000001</v>
+        <v>10.062365</v>
       </c>
       <c r="E28" s="2">
-        <v>18235</v>
+        <v>5040</v>
       </c>
       <c r="F28" s="2">
-        <v>18237</v>
+        <v>5042</v>
       </c>
       <c r="G28" s="2">
-        <v>159716</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,7 +1122,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="6">
-        <v>263.38249999999999</v>
+        <v>211.08252999999999</v>
       </c>
       <c r="E29" s="2">
         <v>325</v>
@@ -962,7 +1135,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A12:A14"/>
